--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>647184.2304567143</v>
+        <v>642595.9484327122</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29945736.18389928</v>
+        <v>29945736.18389927</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6910952.519696833</v>
+        <v>6910952.519696834</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5234299.953672657</v>
+        <v>5234299.953672655</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458681</v>
       </c>
       <c r="T11" t="n">
         <v>211.1448086517629</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>320.726008438997</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>330.9381489922898</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>142.5324296116899</v>
+        <v>67.26950023432319</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>78.88339274836306</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.1539881323723</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>130.1587286127335</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>66.87025411167006</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>173.4822249357958</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>112.5885169387731</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>132.8997402325358</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>95.17196952303587</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.5909258267186</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>294.7626132942831</v>
+        <v>153.449571097052</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T21" t="n">
         <v>136.7309641056443</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>135.4602252892499</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>69.82582446500714</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>197.3026700605047</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>150.6858532472579</v>
       </c>
       <c r="U23" t="n">
         <v>255.5900972850689</v>
@@ -2383,10 +2383,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>116.769668953931</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H24" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T24" t="n">
         <v>135.5747030934602</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>30.83203066272109</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>49.79192016740836</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>150.7214115632189</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7978291248855</v>
+        <v>153.7270965757062</v>
       </c>
       <c r="U26" t="n">
         <v>255.5900972850689</v>
@@ -2617,10 +2617,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>301.2979691841342</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2651,7 +2651,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H27" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T27" t="n">
         <v>135.5747030934602</v>
@@ -2721,10 +2721,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>43.22680928567613</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>131.3389198681593</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S28" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.5633491017144</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.8519945163111</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>384.7153551543514</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H30" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T30" t="n">
         <v>135.5747030934602</v>
@@ -2958,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>48.82384198018676</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>150.7214115632189</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>157.4774237834074</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,22 +3031,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>390.1911218595047</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7978291248855</v>
+        <v>118.3313026453093</v>
       </c>
       <c r="U32" t="n">
         <v>255.5900972850689</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H33" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T33" t="n">
         <v>135.5747030934602</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>82.83366297704582</v>
       </c>
       <c r="G34" t="n">
         <v>163.5780456014529</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>150.7214115632189</v>
       </c>
       <c r="T34" t="n">
-        <v>121.918826487136</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3271665015756</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>24.67422195216762</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.0298839804087</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>255.5900972850689</v>
       </c>
       <c r="V35" t="n">
-        <v>55.72016036292318</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H36" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T36" t="n">
         <v>135.5747030934602</v>
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>143.2691916366605</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>132.1667127222831</v>
       </c>
       <c r="G37" t="n">
         <v>163.5780456014529</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I37" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>150.7214115632189</v>
@@ -3480,7 +3480,7 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>86.76867730822632</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.5900972850689</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>76.36620350768629</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H39" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T39" t="n">
         <v>135.5747030934602</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>82.44997446034982</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>71.37485776423863</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H40" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I40" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S40" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.5633491017144</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.0298839804087</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.6919815555191</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>255.5900972850689</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>50.33055440501022</v>
+        <v>92.47687168077547</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H42" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T42" t="n">
         <v>135.5747030934602</v>
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3918,7 +3918,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I43" t="n">
-        <v>68.20633367524528</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8692371952046827</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>150.7214115632189</v>
       </c>
       <c r="T43" t="n">
-        <v>82.07410678853019</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U43" t="n">
         <v>277.3271665015756</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>33.47616255435337</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>309.7098540821871</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.6919815555191</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>243.4233989954807</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H45" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T45" t="n">
         <v>135.5747030934602</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H46" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I46" t="n">
-        <v>68.20633367524528</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8692371952046827</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S46" t="n">
         <v>150.7214115632189</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>239.6474742885542</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.3699588697069</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>864.845055500735</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="C11" t="n">
-        <v>864.845055500735</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D11" t="n">
-        <v>864.845055500735</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E11" t="n">
         <v>438.8681156485927</v>
@@ -5038,16 +5038,16 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872675</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149083</v>
+        <v>184.2963411149081</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250301</v>
+        <v>366.7061291250295</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
         <v>862.6140377103479</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V11" t="n">
-        <v>1600.530719422884</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="W11" t="n">
-        <v>1276.565054332988</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="X11" t="n">
-        <v>864.845055500735</v>
+        <v>844.2053856937023</v>
       </c>
       <c r="Y11" t="n">
-        <v>864.845055500735</v>
+        <v>438.8681156485927</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607426</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760275</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489647</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318688</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004349</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H12" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J12" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L12" t="n">
-        <v>712.4740133525838</v>
+        <v>735.9313191969959</v>
       </c>
       <c r="M12" t="n">
-        <v>921.7487118335988</v>
+        <v>945.206017678011</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1333.947360653402</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P12" t="n">
-        <v>1487.345475499754</v>
+        <v>1510.802781344167</v>
       </c>
       <c r="Q12" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R12" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>737.1118970142579</v>
+        <v>579.2344355754844</v>
       </c>
       <c r="C13" t="n">
-        <v>565.1393338931739</v>
+        <v>407.2618724544004</v>
       </c>
       <c r="D13" t="n">
-        <v>421.1671827702548</v>
+        <v>339.3128823187204</v>
       </c>
       <c r="E13" t="n">
-        <v>421.1671827702548</v>
+        <v>173.104676471574</v>
       </c>
       <c r="F13" t="n">
-        <v>249.3054085448152</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840599</v>
       </c>
       <c r="K13" t="n">
-        <v>385.9171444939832</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L13" t="n">
-        <v>834.8346997140877</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>1283.752254934192</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N13" t="n">
-        <v>1380.75096102614</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O13" t="n">
-        <v>1703.122733210255</v>
+        <v>1556.72602525198</v>
       </c>
       <c r="P13" t="n">
-        <v>1773.863841351391</v>
+        <v>1627.467133393116</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
@@ -5238,13 +5238,13 @@
         <v>1011.964300841745</v>
       </c>
       <c r="W13" t="n">
-        <v>737.1118970142579</v>
+        <v>1011.964300841745</v>
       </c>
       <c r="X13" t="n">
-        <v>737.1118970142579</v>
+        <v>769.40040428755</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.1118970142579</v>
+        <v>769.40040428755</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>872.4233487240541</v>
+        <v>115.9563607737085</v>
       </c>
       <c r="C14" t="n">
-        <v>445.5226187373542</v>
+        <v>115.9563607737085</v>
       </c>
       <c r="D14" t="n">
-        <v>445.5226187373542</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="E14" t="n">
-        <v>445.5226187373542</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149077</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250296</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303099</v>
+        <v>598.9981372303104</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103483</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O14" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P14" t="n">
         <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R14" t="n">
         <v>1813.808303919614</v>
@@ -5308,22 +5308,22 @@
         <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1277.760618769164</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V14" t="n">
-        <v>1277.760618769164</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W14" t="n">
-        <v>1277.760618769164</v>
+        <v>1352.861993942601</v>
       </c>
       <c r="X14" t="n">
-        <v>1277.760618769164</v>
+        <v>941.1419951103483</v>
       </c>
       <c r="Y14" t="n">
-        <v>872.4233487240541</v>
+        <v>535.8047250652386</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004328</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J15" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7326700523438</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L15" t="n">
-        <v>420.3715208829927</v>
+        <v>735.9313191969959</v>
       </c>
       <c r="M15" t="n">
-        <v>629.6462193640077</v>
+        <v>945.206017678011</v>
       </c>
       <c r="N15" t="n">
-        <v>846.8012011963239</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1295.718756416428</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P15" t="n">
-        <v>1449.116871262781</v>
+        <v>1510.802781344167</v>
       </c>
       <c r="Q15" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R15" t="n">
         <v>1813.808303919613</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>587.3753886174012</v>
+        <v>662.7478830760474</v>
       </c>
       <c r="C16" t="n">
-        <v>587.3753886174012</v>
+        <v>662.7478830760474</v>
       </c>
       <c r="D16" t="n">
-        <v>587.3753886174012</v>
+        <v>499.4311102028181</v>
       </c>
       <c r="E16" t="n">
-        <v>421.1671827702548</v>
+        <v>333.2229043556716</v>
       </c>
       <c r="F16" t="n">
-        <v>249.3054085448152</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G16" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J16" t="n">
-        <v>148.0721041840598</v>
+        <v>148.0721041840599</v>
       </c>
       <c r="K16" t="n">
-        <v>216.556252028182</v>
+        <v>216.5562520281821</v>
       </c>
       <c r="L16" t="n">
-        <v>665.4738072482864</v>
+        <v>665.4738072482867</v>
       </c>
       <c r="M16" t="n">
         <v>1114.391362468391</v>
@@ -5451,37 +5451,37 @@
         <v>1211.390068560339</v>
       </c>
       <c r="O16" t="n">
-        <v>1660.307623780443</v>
+        <v>1660.307623780444</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351391</v>
+        <v>1731.048731921579</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.530066266137</v>
+        <v>1657.330917251775</v>
       </c>
       <c r="T16" t="n">
-        <v>1405.539232097734</v>
+        <v>1657.330917251775</v>
       </c>
       <c r="U16" t="n">
-        <v>1337.993520873825</v>
+        <v>1377.189215734279</v>
       </c>
       <c r="V16" t="n">
-        <v>1056.282053481854</v>
+        <v>1095.477748342308</v>
       </c>
       <c r="W16" t="n">
-        <v>1056.282053481854</v>
+        <v>1095.477748342308</v>
       </c>
       <c r="X16" t="n">
-        <v>813.7181569276592</v>
+        <v>852.913851788113</v>
       </c>
       <c r="Y16" t="n">
-        <v>587.3753886174012</v>
+        <v>852.913851788113</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1059.92753934621</v>
+        <v>576.9026707507215</v>
       </c>
       <c r="C17" t="n">
-        <v>884.6929687039918</v>
+        <v>150.0019407640216</v>
       </c>
       <c r="D17" t="n">
-        <v>461.4003478889921</v>
+        <v>150.0019407640216</v>
       </c>
       <c r="E17" t="n">
-        <v>461.4003478889921</v>
+        <v>150.0019407640216</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839227</v>
+        <v>150.0019407640216</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872666</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J17" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5551,16 +5551,16 @@
         <v>1813.808303919614</v>
       </c>
       <c r="V17" t="n">
-        <v>1456.318889045863</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="W17" t="n">
-        <v>1059.92753934621</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="X17" t="n">
-        <v>1059.92753934621</v>
+        <v>1402.088305087361</v>
       </c>
       <c r="Y17" t="n">
-        <v>1059.92753934621</v>
+        <v>996.7510350422516</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C18" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D18" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318688</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
         <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>267.1899758967556</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>671.4155988778757</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>1120.33315409798</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N18" t="n">
-        <v>1337.488135930296</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1532.531802917783</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P18" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>342.4908910505226</v>
+        <v>304.3820317479974</v>
       </c>
       <c r="C19" t="n">
-        <v>170.5183279294386</v>
+        <v>132.4094686269134</v>
       </c>
       <c r="D19" t="n">
-        <v>170.5183279294386</v>
+        <v>132.4094686269134</v>
       </c>
       <c r="E19" t="n">
-        <v>36.27616607839227</v>
+        <v>132.4094686269134</v>
       </c>
       <c r="F19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>82.12460229687599</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>150.6087501409982</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>243.1045732412203</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M19" t="n">
-        <v>341.1579208188395</v>
+        <v>654.3880318200453</v>
       </c>
       <c r="N19" t="n">
-        <v>790.0754760389439</v>
+        <v>1102.831680612252</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259048</v>
+        <v>1551.749235832356</v>
       </c>
       <c r="P19" t="n">
         <v>1622.490343973492</v>
@@ -5697,28 +5697,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1405.539232097734</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U19" t="n">
-        <v>1125.397530580239</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V19" t="n">
-        <v>843.6860631882676</v>
+        <v>1011.964300841745</v>
       </c>
       <c r="W19" t="n">
-        <v>568.8336593607805</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="X19" t="n">
-        <v>568.8336593607805</v>
+        <v>494.548000460063</v>
       </c>
       <c r="Y19" t="n">
-        <v>342.4908910505226</v>
+        <v>494.548000460063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.27616607839227</v>
+        <v>1594.253776877555</v>
       </c>
       <c r="C20" t="n">
-        <v>36.27616607839227</v>
+        <v>1167.353046890855</v>
       </c>
       <c r="D20" t="n">
-        <v>36.27616607839227</v>
+        <v>1167.353046890855</v>
       </c>
       <c r="E20" t="n">
-        <v>36.27616607839227</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="F20" t="n">
-        <v>36.27616607839227</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G20" t="n">
-        <v>36.27616607839227</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
         <v>68.08893453872668</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149079</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250298</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1555.593163543254</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V20" t="n">
-        <v>1257.853150114685</v>
+        <v>1594.253776877555</v>
       </c>
       <c r="W20" t="n">
-        <v>861.461800415032</v>
+        <v>1594.253776877555</v>
       </c>
       <c r="X20" t="n">
-        <v>861.461800415032</v>
+        <v>1594.253776877555</v>
       </c>
       <c r="Y20" t="n">
-        <v>456.1245303699224</v>
+        <v>1594.253776877555</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>267.1899758967555</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>716.1075311168599</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>925.3822295978749</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.5505146247521</v>
+        <v>345.077239592658</v>
       </c>
       <c r="C22" t="n">
-        <v>338.577951503668</v>
+        <v>173.104676471574</v>
       </c>
       <c r="D22" t="n">
-        <v>338.577951503668</v>
+        <v>173.104676471574</v>
       </c>
       <c r="E22" t="n">
-        <v>338.577951503668</v>
+        <v>173.104676471574</v>
       </c>
       <c r="F22" t="n">
-        <v>338.577951503668</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G22" t="n">
         <v>173.104676471574</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583895</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>385.9171444939831</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>478.4129675942052</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>703.7823482166195</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.699903436724</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
-        <v>1238.993031259048</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U22" t="n">
-        <v>1521.865751416481</v>
+        <v>1533.666602402119</v>
       </c>
       <c r="V22" t="n">
-        <v>1240.15428402451</v>
+        <v>1251.955135010148</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.62314820127</v>
+        <v>977.1027311826606</v>
       </c>
       <c r="X22" t="n">
-        <v>927.0592516470756</v>
+        <v>734.5388346284657</v>
       </c>
       <c r="Y22" t="n">
-        <v>700.7164833368176</v>
+        <v>535.2432083047236</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>900.8695758477136</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="C23" t="n">
-        <v>900.8695758477136</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="D23" t="n">
         <v>900.8695758477136</v>
       </c>
       <c r="E23" t="n">
-        <v>474.8926359955712</v>
+        <v>474.8926359955711</v>
       </c>
       <c r="F23" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="G23" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="H23" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="I23" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J23" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486623</v>
       </c>
       <c r="K23" t="n">
-        <v>513.2289698376787</v>
+        <v>513.2289698376783</v>
       </c>
       <c r="L23" t="n">
-        <v>829.2827739385798</v>
+        <v>829.2827739385791</v>
       </c>
       <c r="M23" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N23" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O23" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.365373791549</v>
       </c>
       <c r="P23" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q23" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R23" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S23" t="n">
-        <v>2436.208586465217</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="T23" t="n">
-        <v>2436.208586465217</v>
+        <v>2336.21477667558</v>
       </c>
       <c r="U23" t="n">
-        <v>2178.036771025753</v>
+        <v>2078.042961236117</v>
       </c>
       <c r="V23" t="n">
-        <v>1820.547356152003</v>
+        <v>1720.553546362366</v>
       </c>
       <c r="W23" t="n">
-        <v>1424.15600645235</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="X23" t="n">
-        <v>1306.206845892823</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="Y23" t="n">
-        <v>900.8695758477136</v>
+        <v>1324.162196662713</v>
       </c>
     </row>
     <row r="24">
@@ -6050,34 +6050,34 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D24" t="n">
-        <v>382.4949705971606</v>
+        <v>382.4949705971605</v>
       </c>
       <c r="E24" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F24" t="n">
-        <v>184.147206553002</v>
+        <v>184.1472065530019</v>
       </c>
       <c r="G24" t="n">
-        <v>91.31798361203343</v>
+        <v>91.3179836120334</v>
       </c>
       <c r="H24" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="I24" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K24" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L24" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M24" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N24" t="n">
         <v>1165.638568386506</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>600.5830081276295</v>
+        <v>760.4835288927076</v>
       </c>
       <c r="C25" t="n">
-        <v>428.6104450065454</v>
+        <v>588.5109657716235</v>
       </c>
       <c r="D25" t="n">
-        <v>265.2936721333161</v>
+        <v>425.1941928983942</v>
       </c>
       <c r="E25" t="n">
-        <v>214.9988032773481</v>
+        <v>425.1941928983942</v>
       </c>
       <c r="F25" t="n">
-        <v>214.9988032773481</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="G25" t="n">
-        <v>49.76845418497139</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H25" t="n">
-        <v>49.76845418497139</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I25" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="J25" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K25" t="n">
         <v>521.826161564851</v>
       </c>
       <c r="L25" t="n">
-        <v>815.9246389747863</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M25" t="n">
-        <v>1364.835425344067</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N25" t="n">
-        <v>1896.301579856354</v>
+        <v>1367.22575817525</v>
       </c>
       <c r="O25" t="n">
-        <v>2016.247889149234</v>
+        <v>1864.874391771334</v>
       </c>
       <c r="P25" t="n">
-        <v>2428.541312378488</v>
+        <v>2277.167815000588</v>
       </c>
       <c r="Q25" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S25" t="n">
-        <v>2335.300841815818</v>
+        <v>2336.178859184711</v>
       </c>
       <c r="T25" t="n">
-        <v>2096.347963935299</v>
+        <v>2097.225981304191</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.219512923606</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V25" t="n">
-        <v>1534.508045531635</v>
+        <v>1535.386062900527</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.655641704148</v>
+        <v>1260.53365907304</v>
       </c>
       <c r="X25" t="n">
-        <v>1017.091745149953</v>
+        <v>1017.969762518845</v>
       </c>
       <c r="Y25" t="n">
-        <v>790.748976839695</v>
+        <v>791.6269942085875</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>899.961804986671</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="C26" t="n">
-        <v>473.0610749999711</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="D26" t="n">
-        <v>49.76845418497139</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="E26" t="n">
-        <v>49.76845418497139</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="F26" t="n">
-        <v>49.76845418497139</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G26" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H26" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I26" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147725</v>
       </c>
       <c r="J26" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486617</v>
       </c>
       <c r="K26" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376783</v>
       </c>
       <c r="L26" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385792</v>
       </c>
       <c r="M26" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N26" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O26" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.365373791549</v>
       </c>
       <c r="P26" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q26" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R26" t="n">
         <v>2488.422709248569</v>
       </c>
       <c r="S26" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T26" t="n">
-        <v>2225.301688359272</v>
+        <v>2280.9286909342</v>
       </c>
       <c r="U26" t="n">
-        <v>1967.129872919808</v>
+        <v>2022.756875494736</v>
       </c>
       <c r="V26" t="n">
-        <v>1609.640458046058</v>
+        <v>1665.267460620986</v>
       </c>
       <c r="W26" t="n">
-        <v>1609.640458046058</v>
+        <v>1268.876110921333</v>
       </c>
       <c r="X26" t="n">
-        <v>1305.299075031781</v>
+        <v>857.1561120890798</v>
       </c>
       <c r="Y26" t="n">
-        <v>899.961804986671</v>
+        <v>451.8188420439701</v>
       </c>
     </row>
     <row r="27">
@@ -6299,22 +6299,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H27" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I27" t="n">
-        <v>90.47363489947443</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J27" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K27" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L27" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M27" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N27" t="n">
         <v>1165.638568386506</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>600.5830081276295</v>
+        <v>752.8268581914863</v>
       </c>
       <c r="C28" t="n">
-        <v>428.6104450065454</v>
+        <v>580.8542950704023</v>
       </c>
       <c r="D28" t="n">
-        <v>265.2936721333161</v>
+        <v>417.537522197173</v>
       </c>
       <c r="E28" t="n">
-        <v>221.630228410411</v>
+        <v>251.3293163500265</v>
       </c>
       <c r="F28" t="n">
-        <v>49.76845418497139</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="G28" t="n">
-        <v>49.76845418497139</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="H28" t="n">
-        <v>49.76845418497139</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I28" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J28" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K28" t="n">
-        <v>521.826161564851</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L28" t="n">
-        <v>649.7197290546715</v>
+        <v>700.9042968835935</v>
       </c>
       <c r="M28" t="n">
-        <v>835.7596036629644</v>
+        <v>1249.815083252874</v>
       </c>
       <c r="N28" t="n">
-        <v>1367.225758175251</v>
+        <v>1781.281237765161</v>
       </c>
       <c r="O28" t="n">
-        <v>1864.874391771335</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P28" t="n">
-        <v>2277.167815000589</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q28" t="n">
         <v>2488.422709248569</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S28" t="n">
-        <v>2335.300841815818</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="T28" t="n">
-        <v>2096.347963935299</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.219512923606</v>
+        <v>1968.463362987463</v>
       </c>
       <c r="V28" t="n">
-        <v>1534.508045531635</v>
+        <v>1686.751895595492</v>
       </c>
       <c r="W28" t="n">
-        <v>1259.655641704148</v>
+        <v>1411.899491768005</v>
       </c>
       <c r="X28" t="n">
-        <v>1017.091745149953</v>
+        <v>1169.33559521381</v>
       </c>
       <c r="Y28" t="n">
-        <v>790.748976839695</v>
+        <v>942.992826903552</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1325.938744838813</v>
+        <v>865.2705530144505</v>
       </c>
       <c r="C29" t="n">
-        <v>899.0380148521135</v>
+        <v>438.3698230277506</v>
       </c>
       <c r="D29" t="n">
-        <v>475.7453940371138</v>
+        <v>438.3698230277506</v>
       </c>
       <c r="E29" t="n">
-        <v>49.7684541849714</v>
+        <v>438.3698230277506</v>
       </c>
       <c r="F29" t="n">
-        <v>49.7684541849714</v>
+        <v>438.3698230277506</v>
       </c>
       <c r="G29" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H29" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I29" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J29" t="n">
-        <v>263.3013860486622</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K29" t="n">
-        <v>513.2289698376787</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L29" t="n">
         <v>829.2827739385798</v>
@@ -6475,7 +6475,7 @@
         <v>1186.099811633997</v>
       </c>
       <c r="N29" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O29" t="n">
         <v>1890.36537379155</v>
@@ -6484,31 +6484,31 @@
         <v>2175.730653154894</v>
       </c>
       <c r="Q29" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R29" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S29" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T29" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U29" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="V29" t="n">
-        <v>1867.812273485522</v>
+        <v>2078.719171591466</v>
       </c>
       <c r="W29" t="n">
-        <v>1867.812273485522</v>
+        <v>1682.327821891813</v>
       </c>
       <c r="X29" t="n">
-        <v>1456.092274653269</v>
+        <v>1270.60782305956</v>
       </c>
       <c r="Y29" t="n">
-        <v>1456.092274653269</v>
+        <v>865.2705530144505</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H30" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I30" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0655064016225</v>
+        <v>168.0655064016224</v>
       </c>
       <c r="K30" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L30" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M30" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N30" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O30" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P30" t="n">
         <v>1635.880495210175</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.5830081276299</v>
+        <v>684.9568172189929</v>
       </c>
       <c r="C31" t="n">
-        <v>428.6104450065459</v>
+        <v>512.9842540979089</v>
       </c>
       <c r="D31" t="n">
-        <v>265.2936721333166</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="E31" t="n">
-        <v>99.08546628617015</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="F31" t="n">
-        <v>49.7684541849714</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="G31" t="n">
-        <v>49.7684541849714</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H31" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I31" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J31" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K31" t="n">
-        <v>274.543552450829</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L31" t="n">
-        <v>402.4371199406495</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M31" t="n">
-        <v>951.3479063099303</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N31" t="n">
-        <v>1482.814060822217</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O31" t="n">
         <v>1864.874391771335</v>
       </c>
       <c r="P31" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q31" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S31" t="n">
-        <v>2335.300841815819</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T31" t="n">
-        <v>2096.347963935299</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="U31" t="n">
-        <v>1816.219512923607</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V31" t="n">
-        <v>1534.508045531635</v>
+        <v>1535.386062900528</v>
       </c>
       <c r="W31" t="n">
-        <v>1259.655641704148</v>
+        <v>1260.533659073041</v>
       </c>
       <c r="X31" t="n">
-        <v>1017.091745149953</v>
+        <v>1101.465554241317</v>
       </c>
       <c r="Y31" t="n">
-        <v>790.7489768396955</v>
+        <v>875.1227859310586</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1547.281508628278</v>
+        <v>473.0610749999711</v>
       </c>
       <c r="C32" t="n">
-        <v>1120.380778641578</v>
+        <v>473.0610749999711</v>
       </c>
       <c r="D32" t="n">
-        <v>1120.380778641578</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="E32" t="n">
-        <v>1120.380778641578</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="F32" t="n">
-        <v>726.2483323188463</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="G32" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H32" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I32" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J32" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486623</v>
       </c>
       <c r="K32" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376788</v>
       </c>
       <c r="L32" t="n">
-        <v>829.2827739385799</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M32" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N32" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O32" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P32" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q32" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R32" t="n">
         <v>2488.422709248569</v>
       </c>
       <c r="S32" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T32" t="n">
-        <v>2225.301688359272</v>
+        <v>2316.682018136621</v>
       </c>
       <c r="U32" t="n">
-        <v>1967.129872919808</v>
+        <v>2058.510202697158</v>
       </c>
       <c r="V32" t="n">
-        <v>1967.129872919808</v>
+        <v>1701.020787823407</v>
       </c>
       <c r="W32" t="n">
-        <v>1967.129872919808</v>
+        <v>1304.629438123754</v>
       </c>
       <c r="X32" t="n">
-        <v>1967.129872919808</v>
+        <v>892.9094392915013</v>
       </c>
       <c r="Y32" t="n">
-        <v>1967.129872919808</v>
+        <v>892.9094392915013</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H33" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I33" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K33" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L33" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M33" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N33" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O33" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P33" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q33" t="n">
-        <v>1751.169046541192</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R33" t="n">
         <v>1817.643160879484</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>716.3855562231635</v>
+        <v>840.4139033770425</v>
       </c>
       <c r="C34" t="n">
-        <v>716.3855562231635</v>
+        <v>668.4413402559585</v>
       </c>
       <c r="D34" t="n">
-        <v>553.0687833499342</v>
+        <v>668.4413402559585</v>
       </c>
       <c r="E34" t="n">
-        <v>386.8605775027877</v>
+        <v>502.233134408812</v>
       </c>
       <c r="F34" t="n">
-        <v>214.9988032773481</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G34" t="n">
-        <v>49.76845418497139</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H34" t="n">
-        <v>49.76845418497139</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I34" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J34" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K34" t="n">
-        <v>274.543552450829</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L34" t="n">
-        <v>700.3842977565055</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M34" t="n">
-        <v>835.7596036629644</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N34" t="n">
         <v>1367.225758175251</v>
@@ -6882,28 +6882,28 @@
         <v>2488.422709248569</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S34" t="n">
-        <v>2335.300841815818</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T34" t="n">
-        <v>2212.150512030832</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="U34" t="n">
-        <v>1932.02206101914</v>
+        <v>2056.050408173019</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.310593627169</v>
+        <v>1774.338940781048</v>
       </c>
       <c r="W34" t="n">
-        <v>1375.458189799682</v>
+        <v>1499.486536953561</v>
       </c>
       <c r="X34" t="n">
-        <v>1132.894293245487</v>
+        <v>1256.922640399366</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.5515249352291</v>
+        <v>1030.579872089108</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1304.696511882813</v>
+        <v>2153.113314508412</v>
       </c>
       <c r="C35" t="n">
-        <v>877.7957818961125</v>
+        <v>1726.212584521712</v>
       </c>
       <c r="D35" t="n">
-        <v>877.7957818961125</v>
+        <v>1302.919963706712</v>
       </c>
       <c r="E35" t="n">
-        <v>451.8188420439701</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F35" t="n">
         <v>451.8188420439701</v>
       </c>
       <c r="G35" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H35" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I35" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J35" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K35" t="n">
-        <v>513.2289698376794</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L35" t="n">
-        <v>829.2827739385804</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M35" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N35" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O35" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P35" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q35" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R35" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S35" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T35" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U35" t="n">
-        <v>2178.036771025754</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="V35" t="n">
-        <v>2121.753780760175</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="W35" t="n">
-        <v>2121.753780760175</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="X35" t="n">
-        <v>1710.033781927922</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="Y35" t="n">
-        <v>1304.696511882813</v>
+        <v>2178.036771025753</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H36" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I36" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K36" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L36" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M36" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N36" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O36" t="n">
         <v>1428.251826469389</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>600.5830081276299</v>
+        <v>881.5894765082153</v>
       </c>
       <c r="C37" t="n">
-        <v>428.6104450065459</v>
+        <v>881.5894765082153</v>
       </c>
       <c r="D37" t="n">
-        <v>428.6104450065459</v>
+        <v>718.272703634986</v>
       </c>
       <c r="E37" t="n">
-        <v>283.8940898179999</v>
+        <v>552.0644977878395</v>
       </c>
       <c r="F37" t="n">
-        <v>283.8940898179999</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G37" t="n">
-        <v>118.6637407256232</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H37" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I37" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J37" t="n">
-        <v>100.4757597880648</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K37" t="n">
-        <v>196.6218358026081</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L37" t="n">
-        <v>324.5154032924287</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M37" t="n">
-        <v>835.7596036629649</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N37" t="n">
-        <v>1367.225758175251</v>
+        <v>1692.950083064582</v>
       </c>
       <c r="O37" t="n">
         <v>1864.874391771335</v>
       </c>
       <c r="P37" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q37" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S37" t="n">
-        <v>2335.300841815819</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T37" t="n">
-        <v>2096.347963935299</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="U37" t="n">
-        <v>1816.219512923607</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="V37" t="n">
-        <v>1534.508045531635</v>
+        <v>1815.514513912221</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.655641704148</v>
+        <v>1540.662110084734</v>
       </c>
       <c r="X37" t="n">
-        <v>1017.091745149953</v>
+        <v>1298.098213530539</v>
       </c>
       <c r="Y37" t="n">
-        <v>790.7489768396955</v>
+        <v>1071.755445220281</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.9430238545699</v>
+        <v>2153.113314508412</v>
       </c>
       <c r="C38" t="n">
-        <v>876.9430238545699</v>
+        <v>1726.212584521712</v>
       </c>
       <c r="D38" t="n">
-        <v>876.9430238545699</v>
+        <v>1302.919963706712</v>
       </c>
       <c r="E38" t="n">
         <v>876.9430238545699</v>
@@ -7165,61 +7165,61 @@
         <v>451.8188420439701</v>
       </c>
       <c r="G38" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="H38" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I38" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J38" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486623</v>
       </c>
       <c r="K38" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376787</v>
       </c>
       <c r="L38" t="n">
-        <v>829.2827739385799</v>
+        <v>829.2827739385796</v>
       </c>
       <c r="M38" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N38" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O38" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P38" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q38" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R38" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S38" t="n">
-        <v>2436.208586465217</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="T38" t="n">
-        <v>2348.563457871049</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="U38" t="n">
-        <v>2090.391642431586</v>
+        <v>2230.250893809105</v>
       </c>
       <c r="V38" t="n">
-        <v>2090.391642431586</v>
+        <v>2230.250893809105</v>
       </c>
       <c r="W38" t="n">
-        <v>1694.000292731932</v>
+        <v>2230.250893809105</v>
       </c>
       <c r="X38" t="n">
-        <v>1282.28029389968</v>
+        <v>2153.113314508412</v>
       </c>
       <c r="Y38" t="n">
-        <v>876.9430238545699</v>
+        <v>2153.113314508412</v>
       </c>
     </row>
     <row r="39">
@@ -7235,37 +7235,37 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D39" t="n">
-        <v>382.4949705971606</v>
+        <v>382.4949705971605</v>
       </c>
       <c r="E39" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F39" t="n">
-        <v>184.147206553002</v>
+        <v>184.1472065530019</v>
       </c>
       <c r="G39" t="n">
-        <v>91.31798361203343</v>
+        <v>91.3179836120334</v>
       </c>
       <c r="H39" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I39" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K39" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L39" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M39" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N39" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O39" t="n">
         <v>1428.251826469389</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>826.9257764378879</v>
+        <v>859.7100244183497</v>
       </c>
       <c r="C40" t="n">
-        <v>654.9532133168038</v>
+        <v>687.7374612972657</v>
       </c>
       <c r="D40" t="n">
-        <v>491.6364404435745</v>
+        <v>687.7374612972657</v>
       </c>
       <c r="E40" t="n">
-        <v>325.4282345964281</v>
+        <v>521.5292554501192</v>
       </c>
       <c r="F40" t="n">
-        <v>253.3324186729547</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="G40" t="n">
-        <v>253.3324186729547</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I40" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="J40" t="n">
-        <v>100.4757597880648</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K40" t="n">
-        <v>443.9044449166302</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L40" t="n">
-        <v>571.7980124064507</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M40" t="n">
-        <v>835.7596036629649</v>
+        <v>1213.461927966167</v>
       </c>
       <c r="N40" t="n">
-        <v>1367.225758175251</v>
+        <v>1744.928082478454</v>
       </c>
       <c r="O40" t="n">
-        <v>1864.874391771335</v>
+        <v>1864.874391771334</v>
       </c>
       <c r="P40" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.167815000588</v>
       </c>
       <c r="Q40" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S40" t="n">
-        <v>2335.300841815819</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="T40" t="n">
-        <v>2096.347963935299</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="U40" t="n">
-        <v>1816.219512923607</v>
+        <v>1968.463362987462</v>
       </c>
       <c r="V40" t="n">
-        <v>1534.508045531635</v>
+        <v>1686.751895595491</v>
       </c>
       <c r="W40" t="n">
-        <v>1259.655641704148</v>
+        <v>1411.899491768004</v>
       </c>
       <c r="X40" t="n">
-        <v>1017.091745149953</v>
+        <v>1169.335595213809</v>
       </c>
       <c r="Y40" t="n">
-        <v>1017.091745149953</v>
+        <v>942.9928269035515</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1302.01219284567</v>
+        <v>1727.136374656269</v>
       </c>
       <c r="C41" t="n">
-        <v>875.1114628589698</v>
+        <v>1300.23564466957</v>
       </c>
       <c r="D41" t="n">
-        <v>451.8188420439701</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="E41" t="n">
-        <v>451.8188420439701</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F41" t="n">
         <v>451.8188420439701</v>
       </c>
       <c r="G41" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H41" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I41" t="n">
         <v>102.0442972147729</v>
       </c>
       <c r="J41" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K41" t="n">
-        <v>513.2289698376792</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L41" t="n">
-        <v>829.2827739385802</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M41" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N41" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O41" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P41" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q41" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R41" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S41" t="n">
-        <v>2436.208586465218</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T41" t="n">
-        <v>2436.208586465218</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U41" t="n">
-        <v>2178.036771025754</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="V41" t="n">
-        <v>2178.036771025754</v>
+        <v>1820.547356152002</v>
       </c>
       <c r="W41" t="n">
-        <v>2127.19782718231</v>
+        <v>1727.136374656269</v>
       </c>
       <c r="X41" t="n">
-        <v>2127.19782718231</v>
+        <v>1727.136374656269</v>
       </c>
       <c r="Y41" t="n">
-        <v>1721.8605571372</v>
+        <v>1727.136374656269</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1274.620380933457</v>
+        <v>603.8408325643708</v>
       </c>
       <c r="C42" t="n">
-        <v>1157.114477450962</v>
+        <v>486.3349290818755</v>
       </c>
       <c r="D42" t="n">
-        <v>1053.274518966247</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E42" t="n">
-        <v>948.5725852391841</v>
+        <v>277.7930368700978</v>
       </c>
       <c r="F42" t="n">
-        <v>854.9267549220883</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G42" t="n">
-        <v>762.0975319811198</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H42" t="n">
-        <v>720.5480025540578</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I42" t="n">
-        <v>745.8593375134086</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J42" t="n">
-        <v>838.845054770709</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K42" t="n">
-        <v>1010.472615128374</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L42" t="n">
-        <v>1248.77446312343</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M42" t="n">
-        <v>1530.006970839629</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N42" t="n">
-        <v>1821.02427100044</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O42" t="n">
-        <v>2083.637529083323</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P42" t="n">
-        <v>2291.266197824109</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q42" t="n">
-        <v>2437.34244066543</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R42" t="n">
-        <v>2488.42270924857</v>
+        <v>1817.643160879484</v>
       </c>
       <c r="S42" t="n">
-        <v>2429.843919456515</v>
+        <v>1759.064371087429</v>
       </c>
       <c r="T42" t="n">
-        <v>2292.899774917666</v>
+        <v>1622.12022654858</v>
       </c>
       <c r="U42" t="n">
-        <v>2108.212141261081</v>
+        <v>1437.432592891995</v>
       </c>
       <c r="V42" t="n">
-        <v>1903.239002400347</v>
+        <v>1232.459454031261</v>
       </c>
       <c r="W42" t="n">
-        <v>1706.717625233564</v>
+        <v>1035.938076864478</v>
       </c>
       <c r="X42" t="n">
-        <v>1543.240279000227</v>
+        <v>872.4607306311411</v>
       </c>
       <c r="Y42" t="n">
-        <v>1403.54739035352</v>
+        <v>732.7678419844335</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>756.6327478379175</v>
+        <v>1091.922083832231</v>
       </c>
       <c r="C43" t="n">
-        <v>756.6327478379175</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D43" t="n">
         <v>756.6327478379175</v>
@@ -7566,55 +7566,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I43" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J43" t="n">
-        <v>100.4757597880649</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K43" t="n">
-        <v>443.9044449166302</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L43" t="n">
-        <v>571.7980124064508</v>
+        <v>700.9042968835935</v>
       </c>
       <c r="M43" t="n">
-        <v>1120.708798775732</v>
+        <v>1249.815083252874</v>
       </c>
       <c r="N43" t="n">
-        <v>1652.174953288018</v>
+        <v>1781.281237765161</v>
       </c>
       <c r="O43" t="n">
-        <v>1864.874391771336</v>
+        <v>2278.929871361244</v>
       </c>
       <c r="P43" t="n">
-        <v>2277.16781500059</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q43" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.544691879677</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S43" t="n">
-        <v>2335.300841815819</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T43" t="n">
-        <v>2252.397703645587</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="U43" t="n">
-        <v>1972.269252633894</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V43" t="n">
-        <v>1690.557785241923</v>
+        <v>1783.283224682041</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.705381414436</v>
+        <v>1508.430820854554</v>
       </c>
       <c r="X43" t="n">
-        <v>1173.141484860241</v>
+        <v>1508.430820854554</v>
       </c>
       <c r="Y43" t="n">
-        <v>946.7987165499831</v>
+        <v>1282.088052544296</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1214.631602428925</v>
+        <v>1574.665134944446</v>
       </c>
       <c r="C44" t="n">
-        <v>787.7308724422248</v>
+        <v>1574.665134944446</v>
       </c>
       <c r="D44" t="n">
-        <v>787.7308724422248</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="E44" t="n">
-        <v>787.7308724422248</v>
+        <v>1151.372514129446</v>
       </c>
       <c r="F44" t="n">
-        <v>362.606690631625</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G44" t="n">
-        <v>49.7684541849714</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H44" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I44" t="n">
-        <v>102.0442972147726</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J44" t="n">
         <v>263.3013860486623</v>
       </c>
       <c r="K44" t="n">
-        <v>513.228969837679</v>
+        <v>513.2289698376788</v>
       </c>
       <c r="L44" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M44" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N44" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O44" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P44" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q44" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R44" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S44" t="n">
-        <v>2436.208586465218</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T44" t="n">
-        <v>2436.208586465218</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U44" t="n">
-        <v>2436.208586465218</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="V44" t="n">
-        <v>2436.208586465218</v>
+        <v>1820.547356152002</v>
       </c>
       <c r="W44" t="n">
-        <v>2039.817236765565</v>
+        <v>1574.665134944446</v>
       </c>
       <c r="X44" t="n">
-        <v>2039.817236765565</v>
+        <v>1574.665134944446</v>
       </c>
       <c r="Y44" t="n">
-        <v>1634.479966720455</v>
+        <v>1574.665134944446</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H45" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I45" t="n">
-        <v>75.07978914432219</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K45" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L45" t="n">
-        <v>577.9949147543434</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M45" t="n">
-        <v>859.2274224705425</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N45" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O45" t="n">
         <v>1428.251826469389</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.691734739854</v>
+        <v>859.7100244183497</v>
       </c>
       <c r="C46" t="n">
-        <v>754.71917161877</v>
+        <v>687.7374612972657</v>
       </c>
       <c r="D46" t="n">
-        <v>591.4023987455407</v>
+        <v>687.7374612972657</v>
       </c>
       <c r="E46" t="n">
-        <v>425.1941928983942</v>
+        <v>521.5292554501192</v>
       </c>
       <c r="F46" t="n">
-        <v>253.3324186729547</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="G46" t="n">
-        <v>253.3324186729547</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H46" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I46" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J46" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K46" t="n">
-        <v>521.8261615648511</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L46" t="n">
-        <v>1026.108622645837</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M46" t="n">
-        <v>1385.166023882745</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N46" t="n">
-        <v>1518.599255553151</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O46" t="n">
-        <v>2016.247889149235</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P46" t="n">
-        <v>2428.541312378489</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q46" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.544691879677</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S46" t="n">
-        <v>2335.300841815819</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T46" t="n">
-        <v>2096.3479639353</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.219512923607</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V46" t="n">
-        <v>1534.508045531636</v>
+        <v>1534.508045531634</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.655641704149</v>
+        <v>1292.43988968461</v>
       </c>
       <c r="X46" t="n">
-        <v>1259.655641704149</v>
+        <v>1049.875993130415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1116.85770345192</v>
+        <v>1049.875993130415</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.06963836310769</v>
+        <v>70.37539003541725</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>238.463277133122</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>147.875462584116</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.4382709420382</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>239.2050974761158</v>
+        <v>70.37539003541727</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362449</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479649</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P16" t="n">
-        <v>43.2475852826382</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>43.24758528263847</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>229.8856284348193</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>242.0634916556458</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.09516642528993</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9333,13 +9333,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779358</v>
+        <v>354.9948916164229</v>
       </c>
       <c r="O19" t="n">
-        <v>366.287300401798</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9479,19 +9479,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>275.0289943327833</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>90.39941839919149</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>128.6020535806012</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779358</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>15.54933914661848</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9801,22 +9801,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>167.8837473940553</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085683</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.54933914661845</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>51.17633202205457</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>116.1821637284775</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>15.54933914661859</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10272,19 +10272,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085774</v>
       </c>
       <c r="O31" t="n">
-        <v>264.7616380366038</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>15.54933914661856</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,16 +10509,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>300.9567452685413</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085774</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>15.54933914661865</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>379.6655499637144</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>52.50302971098213</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>15.54933914661865</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>129.8851367172275</v>
+        <v>52.50302971098165</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>15.54933914661777</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>93.69002948528998</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>50.5800225871686</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>15.54933914661791</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11463,10 +11463,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>225.941510434797</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>73.03898783085774</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -11475,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>71.70142776365958</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>76.66464985164038</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>19.15117553280709</v>
+        <v>94.4141049101738</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.8185422817731</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250878</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578062</v>
       </c>
       <c r="S13" t="n">
         <v>154.9126128011615</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>340.1763018584866</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>15.71895186012148</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.5660300744983</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.98442787045173</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250878</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578062</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>210.4700303906503</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>249.149497751037</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>285.9775131357252</v>
       </c>
       <c r="H17" t="n">
         <v>277.176001558223</v>
@@ -23791,16 +23791,16 @@
         <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>31.64638355613914</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>74.97118696014931</v>
       </c>
       <c r="G19" t="n">
         <v>163.8185422817731</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>59.15190743072992</v>
+        <v>200.464949627961</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24141,7 +24141,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>202.278055324205</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>26.77667056665069</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7978291248855</v>
+        <v>58.11197587762757</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>290.8331298899992</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>157.4322783622239</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>114.7542036212666</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24457,7 +24457,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>271.6851953721275</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>55.07073254917935</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>106.304829659796</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>121.3193145029989</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>38.8042366150259</v>
       </c>
       <c r="G28" t="n">
         <v>163.5780456014529</v>
@@ -24621,7 +24621,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I28" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.7978861323037</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.0298839804087</v>
+        <v>13.31452882605731</v>
       </c>
       <c r="H29" t="n">
         <v>271.6851953721275</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U29" t="n">
         <v>255.5900972850689</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>121.3193145029984</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.66083380524552</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>30.68181813298901</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>90.46652647957626</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>87.30949350613936</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>114.6445226145784</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>390.9756586964471</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>298.1943603620898</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>21.27693215201444</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>37.97644376090213</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T38" t="n">
-        <v>122.0291518166592</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>331.2365953362439</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.8143345645952</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.76829871894655</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>342.0968817976463</v>
+        <v>299.9505645218811</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>154.4892423131842</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>245.418190163698</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>88.32002989822161</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>208.7978291248855</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>149.0040372071758</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>32.45640550065795</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.70938175744848</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349308.752657418</v>
+        <v>349308.7526574181</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>420860.1740516747</v>
+        <v>420860.1740516745</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>420860.1740516747</v>
+        <v>420860.1740516745</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>420860.1740516747</v>
+        <v>420860.1740516745</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>420860.1740516747</v>
+        <v>420860.1740516745</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>420860.1740516747</v>
+        <v>420860.1740516745</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>420860.1740516747</v>
+        <v>420860.1740516745</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420860.1740516747</v>
+        <v>420860.1740516745</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>387286.1177035272</v>
       </c>
       <c r="C2" t="n">
-        <v>387286.117703527</v>
+        <v>387286.1177035272</v>
       </c>
       <c r="D2" t="n">
         <v>387286.117703527</v>
       </c>
       <c r="E2" t="n">
-        <v>207588.5315831481</v>
+        <v>207588.531583148</v>
       </c>
       <c r="F2" t="n">
-        <v>207588.5315831481</v>
+        <v>207588.5315831479</v>
       </c>
       <c r="G2" t="n">
         <v>207588.531583148</v>
       </c>
       <c r="H2" t="n">
-        <v>207588.5315831481</v>
+        <v>207588.531583148</v>
       </c>
       <c r="I2" t="n">
-        <v>254882.7942314636</v>
+        <v>254882.7942314635</v>
       </c>
       <c r="J2" t="n">
         <v>254882.7942314635</v>
@@ -26346,13 +26346,13 @@
         <v>254882.7942314635</v>
       </c>
       <c r="M2" t="n">
-        <v>254882.7942314635</v>
+        <v>254882.7942314634</v>
       </c>
       <c r="N2" t="n">
         <v>254882.7942314635</v>
       </c>
       <c r="O2" t="n">
-        <v>254882.7942314636</v>
+        <v>254882.7942314635</v>
       </c>
       <c r="P2" t="n">
         <v>254882.7942314635</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481053.6498424916</v>
+        <v>481053.6498424918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>145239.9140696165</v>
+        <v>145239.9140696161</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>319793.7510853995</v>
       </c>
       <c r="E4" t="n">
-        <v>19098.0066056576</v>
+        <v>19098.00660565757</v>
       </c>
       <c r="F4" t="n">
         <v>19098.00660565759</v>
       </c>
       <c r="G4" t="n">
-        <v>19098.00660565758</v>
+        <v>19098.00660565761</v>
       </c>
       <c r="H4" t="n">
         <v>19098.00660565759</v>
@@ -26441,25 +26441,25 @@
         <v>15432.09135568978</v>
       </c>
       <c r="J4" t="n">
-        <v>15432.09135568978</v>
+        <v>15432.09135568979</v>
       </c>
       <c r="K4" t="n">
-        <v>15432.09135568978</v>
+        <v>15432.09135568979</v>
       </c>
       <c r="L4" t="n">
-        <v>15432.09135568978</v>
+        <v>15432.09135568979</v>
       </c>
       <c r="M4" t="n">
-        <v>15432.09135568978</v>
+        <v>15432.09135568979</v>
       </c>
       <c r="N4" t="n">
-        <v>15432.09135568978</v>
+        <v>15432.09135568979</v>
       </c>
       <c r="O4" t="n">
-        <v>15432.09135568977</v>
+        <v>15432.09135568979</v>
       </c>
       <c r="P4" t="n">
-        <v>15432.09135568978</v>
+        <v>15432.09135568979</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26490,28 +26490,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576626</v>
       </c>
       <c r="J5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="K5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="L5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="M5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="N5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576626</v>
       </c>
       <c r="O5" t="n">
-        <v>50110.8260057663</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="P5" t="n">
-        <v>50110.8260057663</v>
+        <v>50110.82600576627</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33864.7666181277</v>
+        <v>33843.05297663136</v>
       </c>
       <c r="C6" t="n">
-        <v>33864.76661812753</v>
+        <v>33843.05297663136</v>
       </c>
       <c r="D6" t="n">
-        <v>33864.76661812759</v>
+        <v>33843.05297663124</v>
       </c>
       <c r="E6" t="n">
-        <v>-329512.4256780427</v>
+        <v>-330199.6859347999</v>
       </c>
       <c r="F6" t="n">
-        <v>151541.2241644489</v>
+        <v>150853.9639076918</v>
       </c>
       <c r="G6" t="n">
-        <v>151541.2241644489</v>
+        <v>150853.9639076919</v>
       </c>
       <c r="H6" t="n">
-        <v>151541.2241644489</v>
+        <v>150853.9639076919</v>
       </c>
       <c r="I6" t="n">
-        <v>44099.96280039102</v>
+        <v>43587.86647936878</v>
       </c>
       <c r="J6" t="n">
-        <v>189339.8768700075</v>
+        <v>188827.7805489849</v>
       </c>
       <c r="K6" t="n">
-        <v>189339.8768700075</v>
+        <v>188827.780548985</v>
       </c>
       <c r="L6" t="n">
-        <v>189339.8768700075</v>
+        <v>188827.7805489849</v>
       </c>
       <c r="M6" t="n">
-        <v>76337.80572751159</v>
+        <v>75825.70940648901</v>
       </c>
       <c r="N6" t="n">
-        <v>189339.8768700075</v>
+        <v>188827.7805489849</v>
       </c>
       <c r="O6" t="n">
-        <v>189339.8768700075</v>
+        <v>188827.7805489849</v>
       </c>
       <c r="P6" t="n">
-        <v>189339.8768700074</v>
+        <v>188827.7805489849</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>430.2483758469463</v>
+      </c>
+      <c r="F3" t="n">
+        <v>430.2483758469462</v>
+      </c>
+      <c r="G3" t="n">
         <v>430.248375846946</v>
-      </c>
-      <c r="F3" t="n">
-        <v>430.248375846946</v>
-      </c>
-      <c r="G3" t="n">
-        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
         <v>430.248375846946</v>
       </c>
       <c r="I3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="J3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="K3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="L3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="M3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="N3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="O3" t="n">
-        <v>563.6147167517446</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="P3" t="n">
-        <v>563.6147167517446</v>
+        <v>563.6147167517443</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
+        <v>453.4520759799036</v>
+      </c>
+      <c r="G4" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="G4" t="n">
-        <v>453.4520759799034</v>
-      </c>
       <c r="H4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.105677312142</v>
       </c>
       <c r="J4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="K4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="L4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="M4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="N4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121421</v>
       </c>
       <c r="O4" t="n">
-        <v>622.1056773121426</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="P4" t="n">
-        <v>622.1056773121426</v>
+        <v>622.1056773121422</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133.3663409047985</v>
+        <v>133.3663409047982</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>168.653601332239</v>
+        <v>168.6536013322385</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H11" t="n">
-        <v>17.71369318248255</v>
+        <v>17.71369318248256</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985688</v>
       </c>
       <c r="J11" t="n">
-        <v>146.801178249406</v>
+        <v>146.8011782494061</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0169119161446</v>
+        <v>220.0169119161447</v>
       </c>
       <c r="L11" t="n">
-        <v>272.9504344581586</v>
+        <v>272.9504344581587</v>
       </c>
       <c r="M11" t="n">
-        <v>303.7099502530053</v>
+        <v>303.7099502530054</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670764</v>
       </c>
       <c r="O11" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938982</v>
       </c>
       <c r="P11" t="n">
-        <v>248.7246402301936</v>
+        <v>248.7246402301937</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R11" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100419</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050279</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1383713369558016</v>
+        <v>0.1383713369558017</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651298</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179018</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432574</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659501</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L12" t="n">
-        <v>200.9381683613497</v>
+        <v>200.9381683613498</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365857</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O12" t="n">
-        <v>220.1856947600876</v>
+        <v>220.1856947600877</v>
       </c>
       <c r="P12" t="n">
-        <v>176.7184319587202</v>
+        <v>176.7184319587203</v>
       </c>
       <c r="Q12" t="n">
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027711</v>
       </c>
       <c r="S12" t="n">
-        <v>17.18964029916807</v>
+        <v>17.18964029916808</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654184</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928487</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371161</v>
       </c>
       <c r="H13" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677274</v>
       </c>
       <c r="I13" t="n">
-        <v>23.332157824618</v>
+        <v>23.33215782461801</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445408</v>
+        <v>54.8531412944541</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596675</v>
       </c>
       <c r="L13" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M13" t="n">
-        <v>121.6192253234244</v>
+        <v>121.6192253234245</v>
       </c>
       <c r="N13" t="n">
         <v>118.727391977568</v>
       </c>
       <c r="O13" t="n">
-        <v>109.6639630765298</v>
+        <v>109.6639630765299</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701263</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288889</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391796</v>
       </c>
       <c r="S13" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640404</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.0423195123783882</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985688</v>
       </c>
       <c r="J14" t="n">
-        <v>146.801178249406</v>
+        <v>146.8011782494061</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0169119161446</v>
+        <v>220.0169119161447</v>
       </c>
       <c r="L14" t="n">
-        <v>272.9504344581586</v>
+        <v>272.9504344581587</v>
       </c>
       <c r="M14" t="n">
-        <v>303.7099502530053</v>
+        <v>303.7099502530054</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
-        <v>248.7246402301936</v>
+        <v>248.7246402301937</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100418</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050278</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1383713369558016</v>
+        <v>0.1383713369558017</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651296</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432574</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659497</v>
+        <v>87.433776076595</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L15" t="n">
-        <v>200.9381683613497</v>
+        <v>200.9381683613498</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365857</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027708</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S15" t="n">
-        <v>17.18964029916807</v>
+        <v>17.18964029916808</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.775857726937116</v>
       </c>
       <c r="H16" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677273</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445408</v>
+        <v>54.8531412944541</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596673</v>
       </c>
       <c r="L16" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M16" t="n">
-        <v>121.6192253234244</v>
+        <v>121.6192253234245</v>
       </c>
       <c r="N16" t="n">
         <v>118.727391977568</v>
       </c>
       <c r="O16" t="n">
-        <v>109.6639630765298</v>
+        <v>109.6639630765299</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701261</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391796</v>
       </c>
       <c r="S16" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640404</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
@@ -32250,7 +32250,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,7 +32323,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
@@ -32338,7 +32338,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
@@ -32347,7 +32347,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
@@ -32396,7 +32396,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
@@ -32481,7 +32481,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
         <v>308.6242947670762</v>
@@ -32490,7 +32490,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32502,7 +32502,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H21" t="n">
         <v>8.937801166179012</v>
@@ -32551,7 +32551,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
@@ -32566,22 +32566,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
         <v>0.06088420412928484</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
         <v>90.14056136596669</v>
@@ -32648,7 +32648,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q22" t="n">
         <v>64.96750475288884</v>
@@ -32663,7 +32663,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H23" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I23" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J23" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K23" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L23" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M23" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N23" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O23" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P23" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q23" t="n">
         <v>244.6795929391957</v>
@@ -32736,10 +32736,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S23" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T23" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U23" t="n">
         <v>0.1812630244829729</v>
@@ -32785,43 +32785,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I24" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J24" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K24" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L24" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M24" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N24" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O24" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P24" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q24" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R24" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S24" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T24" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,16 +32861,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H25" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I25" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J25" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K25" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L25" t="n">
         <v>151.1041816025906</v>
@@ -32879,28 +32879,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N25" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O25" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P25" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R25" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S25" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T25" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H26" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I26" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J26" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K26" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L26" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M26" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N26" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O26" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P26" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q26" t="n">
         <v>244.6795929391957</v>
@@ -32973,10 +32973,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S26" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T26" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U26" t="n">
         <v>0.1812630244829729</v>
@@ -33022,43 +33022,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I27" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J27" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K27" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L27" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M27" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N27" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O27" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P27" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q27" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R27" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S27" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T27" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H28" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I28" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J28" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K28" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L28" t="n">
         <v>151.1041816025906</v>
@@ -33116,28 +33116,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N28" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O28" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P28" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R28" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S28" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T28" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H29" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I29" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J29" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K29" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L29" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M29" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N29" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O29" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P29" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q29" t="n">
         <v>244.6795929391957</v>
@@ -33210,10 +33210,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S29" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T29" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U29" t="n">
         <v>0.1812630244829729</v>
@@ -33259,43 +33259,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I30" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J30" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K30" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L30" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M30" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N30" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P30" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q30" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R30" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S30" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T30" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,16 +33335,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H31" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I31" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J31" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K31" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L31" t="n">
         <v>151.1041816025906</v>
@@ -33353,28 +33353,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N31" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O31" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P31" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R31" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S31" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T31" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H32" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I32" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J32" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K32" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L32" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M32" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N32" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O32" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P32" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q32" t="n">
         <v>244.6795929391957</v>
@@ -33447,10 +33447,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S32" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T32" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U32" t="n">
         <v>0.1812630244829729</v>
@@ -33496,43 +33496,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I33" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J33" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K33" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L33" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M33" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N33" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O33" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P33" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R33" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S33" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T33" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,16 +33572,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H34" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I34" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J34" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K34" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L34" t="n">
         <v>151.1041816025906</v>
@@ -33590,28 +33590,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N34" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O34" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P34" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R34" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S34" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T34" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H35" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I35" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J35" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K35" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L35" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M35" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N35" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O35" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P35" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q35" t="n">
         <v>244.6795929391957</v>
@@ -33684,10 +33684,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S35" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T35" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U35" t="n">
         <v>0.1812630244829729</v>
@@ -33733,43 +33733,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I36" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J36" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K36" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L36" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M36" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N36" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P36" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R36" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S36" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T36" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H37" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I37" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J37" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K37" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L37" t="n">
         <v>151.1041816025906</v>
@@ -33827,28 +33827,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N37" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O37" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P37" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R37" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S37" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T37" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H38" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I38" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J38" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K38" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L38" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M38" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N38" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O38" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P38" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q38" t="n">
         <v>244.6795929391957</v>
@@ -33921,10 +33921,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S38" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T38" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U38" t="n">
         <v>0.1812630244829729</v>
@@ -33970,43 +33970,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I39" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J39" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K39" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L39" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M39" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N39" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O39" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P39" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q39" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R39" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S39" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T39" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H40" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I40" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J40" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K40" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L40" t="n">
         <v>151.1041816025906</v>
@@ -34064,28 +34064,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N40" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O40" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P40" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R40" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S40" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T40" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H41" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I41" t="n">
-        <v>87.35178439224779</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J41" t="n">
-        <v>192.3059078026468</v>
+        <v>192.3059078026467</v>
       </c>
       <c r="K41" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L41" t="n">
-        <v>357.5583092012099</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M41" t="n">
-        <v>397.8525130968232</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N41" t="n">
-        <v>404.2901827007263</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O41" t="n">
-        <v>381.7597552044443</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P41" t="n">
-        <v>325.8231187429018</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.6795929391958</v>
+        <v>244.6795929391957</v>
       </c>
       <c r="R41" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S41" t="n">
-        <v>51.63163963007189</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T41" t="n">
-        <v>9.918486120927684</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U41" t="n">
-        <v>0.181263024482973</v>
+        <v>0.1812630244829729</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.212303353013187</v>
+        <v>1.212303353013186</v>
       </c>
       <c r="H42" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I42" t="n">
-        <v>41.73939175944524</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J42" t="n">
-        <v>114.5360812598994</v>
+        <v>114.5360812598993</v>
       </c>
       <c r="K42" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L42" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M42" t="n">
-        <v>307.1700206297008</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N42" t="n">
-        <v>315.2998970628463</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4378069776593</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P42" t="n">
-        <v>231.4967692258251</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q42" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R42" t="n">
-        <v>75.26915028620472</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S42" t="n">
-        <v>22.51800307022299</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T42" t="n">
-        <v>4.886433251838237</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07975679954034125</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H43" t="n">
-        <v>9.03631463906896</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I43" t="n">
-        <v>30.5645489018815</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J43" t="n">
-        <v>71.85625659308717</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K43" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L43" t="n">
-        <v>151.1041816025907</v>
+        <v>151.1041816025906</v>
       </c>
       <c r="M43" t="n">
-        <v>159.3181731303333</v>
+        <v>159.3181731303332</v>
       </c>
       <c r="N43" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O43" t="n">
-        <v>143.6570756730513</v>
+        <v>143.6570756730512</v>
       </c>
       <c r="P43" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.10582222951344</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R43" t="n">
-        <v>45.6989899844939</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S43" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T43" t="n">
-        <v>4.342605194644588</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05543751312312248</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H44" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I44" t="n">
-        <v>87.35178439224754</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J44" t="n">
-        <v>192.3059078026468</v>
+        <v>192.3059078026467</v>
       </c>
       <c r="K44" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L44" t="n">
-        <v>357.5583092012099</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M44" t="n">
-        <v>397.8525130968232</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N44" t="n">
-        <v>404.2901827007263</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O44" t="n">
-        <v>381.7597552044443</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P44" t="n">
-        <v>325.8231187429018</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6795929391958</v>
+        <v>244.6795929391957</v>
       </c>
       <c r="R44" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S44" t="n">
-        <v>51.63163963007189</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T44" t="n">
-        <v>9.918486120927684</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U44" t="n">
-        <v>0.181263024482973</v>
+        <v>0.1812630244829729</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.212303353013187</v>
+        <v>1.212303353013186</v>
       </c>
       <c r="H45" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I45" t="n">
-        <v>41.73939175944524</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J45" t="n">
-        <v>114.5360812598994</v>
+        <v>114.5360812598993</v>
       </c>
       <c r="K45" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L45" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M45" t="n">
-        <v>307.1700206297008</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N45" t="n">
-        <v>315.2998970628463</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4378069776593</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P45" t="n">
-        <v>231.4967692258251</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q45" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R45" t="n">
-        <v>75.26915028620472</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S45" t="n">
-        <v>22.51800307022299</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T45" t="n">
-        <v>4.886433251838237</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07975679954034125</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H46" t="n">
-        <v>9.03631463906896</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I46" t="n">
-        <v>30.5645489018815</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J46" t="n">
-        <v>71.85625659308717</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K46" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L46" t="n">
-        <v>151.1041816025907</v>
+        <v>151.1041816025906</v>
       </c>
       <c r="M46" t="n">
-        <v>159.3181731303333</v>
+        <v>159.3181731303332</v>
       </c>
       <c r="N46" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6570756730513</v>
+        <v>143.6570756730512</v>
       </c>
       <c r="P46" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.10582222951344</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R46" t="n">
-        <v>45.6989899844939</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S46" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T46" t="n">
-        <v>4.342605194644588</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05543751312312248</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589337</v>
       </c>
       <c r="J11" t="n">
         <v>117.3812187638195</v>
       </c>
       <c r="K11" t="n">
-        <v>184.2523111213353</v>
+        <v>184.2523111213354</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255358</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535736</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326304</v>
       </c>
       <c r="O11" t="n">
-        <v>254.0342106378739</v>
+        <v>254.0342106378741</v>
       </c>
       <c r="P11" t="n">
-        <v>211.1492784199623</v>
+        <v>211.1492784199624</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.6571718164749</v>
+        <v>150.657171816475</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332712</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201447</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>127.0390157285253</v>
+        <v>127.0390157285254</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N12" t="n">
-        <v>219.3484664972891</v>
+        <v>219.3484664972892</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.4541918727095</v>
+        <v>165.7599435450192</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L13" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
+        <v>99.04378543193866</v>
+      </c>
+      <c r="N13" t="n">
+        <v>97.97849100196765</v>
+      </c>
+      <c r="O13" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="N13" t="n">
-        <v>97.97849100196758</v>
-      </c>
-      <c r="O13" t="n">
-        <v>325.6280527112274</v>
-      </c>
       <c r="P13" t="n">
-        <v>71.45566478902609</v>
+        <v>71.45566478902614</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.3479419881039</v>
+        <v>188.22340457222</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589337</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35652,25 +35652,25 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255358</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535736</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
-        <v>211.1492784199623</v>
+        <v>211.1492784199624</v>
       </c>
       <c r="Q14" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>453.4520759799035</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q15" t="n">
-        <v>334.5896509857176</v>
+        <v>165.7599435450192</v>
       </c>
       <c r="R15" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325469</v>
+        <v>69.17590691325474</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196758</v>
+        <v>97.97849100196764</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="P16" t="n">
-        <v>114.7032500716643</v>
+        <v>71.45566478902613</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.3479419881039</v>
+        <v>83.59552727074239</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N17" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J18" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
-        <v>408.3087100819395</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>453.4520759799034</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R18" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.31155173584214</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
         <v>93.43012434365872</v>
       </c>
       <c r="M19" t="n">
-        <v>99.0437854319386</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799034</v>
+        <v>452.9733826183905</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q19" t="n">
         <v>193.2504645920423</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
         <v>234.6383920255356</v>
@@ -36132,19 +36132,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326162</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>453.4520759799034</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
         <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>309.7478848964805</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378653</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960184</v>
+        <v>165.7599435450199</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.2163853105522</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>93.43012434365869</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>227.6458390125397</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799034</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O22" t="n">
-        <v>87.16477557810535</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J23" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K23" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L23" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M23" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N23" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O23" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P23" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q23" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R23" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606464</v>
       </c>
       <c r="J24" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K24" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L24" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M24" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N24" t="n">
-        <v>309.506207995923</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O24" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P24" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R24" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K25" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L25" t="n">
-        <v>297.0691691009447</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M25" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N25" t="n">
-        <v>536.8344995073602</v>
+        <v>207.8200299221764</v>
       </c>
       <c r="O25" t="n">
-        <v>121.1578881746268</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P25" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.48625946472846</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J26" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K26" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L26" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M26" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N26" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O26" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P26" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R26" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>41.11634415606368</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J27" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K27" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L27" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M27" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N27" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O27" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P27" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R27" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L28" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M28" t="n">
-        <v>187.919065260902</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N28" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O28" t="n">
-        <v>502.6753874707917</v>
+        <v>237.3400519031042</v>
       </c>
       <c r="P28" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J29" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K29" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L29" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M29" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N29" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O29" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P29" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q29" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R29" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J30" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K30" t="n">
-        <v>173.3611720784495</v>
+        <v>188.9105112250688</v>
       </c>
       <c r="L30" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M30" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N30" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O30" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P30" t="n">
-        <v>225.275267167615</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R30" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K31" t="n">
-        <v>97.11724849953869</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L31" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M31" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N31" t="n">
-        <v>536.8344995073602</v>
+        <v>207.8200299221773</v>
       </c>
       <c r="O31" t="n">
-        <v>385.9195262112306</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P31" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J32" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K32" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L32" t="n">
         <v>319.2462667685868</v>
       </c>
       <c r="M32" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N32" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O32" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P32" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q32" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R32" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J33" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K33" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L33" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M33" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N33" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O33" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P33" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R33" t="n">
-        <v>67.14557003867912</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K34" t="n">
-        <v>97.11724849953869</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L34" t="n">
-        <v>430.1421669754308</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M34" t="n">
         <v>136.7427332388474</v>
       </c>
       <c r="N34" t="n">
-        <v>536.8344995073602</v>
+        <v>207.8200299221773</v>
       </c>
       <c r="O34" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P34" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q34" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J35" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K35" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L35" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M35" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N35" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O35" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P35" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q35" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R35" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J36" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K36" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L36" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M36" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N36" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O36" t="n">
-        <v>280.8152564020557</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P36" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R36" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>51.21950060918529</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K37" t="n">
-        <v>97.11724849953869</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L37" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M37" t="n">
-        <v>516.4082832025618</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N37" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O37" t="n">
-        <v>502.6753874707917</v>
+        <v>173.6609178856089</v>
       </c>
       <c r="P37" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q37" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J38" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K38" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L38" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M38" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N38" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O38" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P38" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q38" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R38" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606463</v>
       </c>
       <c r="J39" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K39" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L39" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M39" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N39" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O39" t="n">
-        <v>280.8152564020557</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P39" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R39" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>51.21950060918529</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K40" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L40" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M40" t="n">
-        <v>266.627869956075</v>
+        <v>189.245762949829</v>
       </c>
       <c r="N40" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O40" t="n">
-        <v>502.6753874707917</v>
+        <v>121.1578881746267</v>
       </c>
       <c r="P40" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q40" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>52.80388184828429</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J41" t="n">
-        <v>162.8859483170603</v>
+        <v>162.8859483170602</v>
       </c>
       <c r="K41" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L41" t="n">
-        <v>319.2462667685869</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M41" t="n">
-        <v>360.4212501973914</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N41" t="n">
-        <v>367.0105598662803</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O41" t="n">
-        <v>344.3687958484202</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P41" t="n">
-        <v>288.2477569326705</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q41" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R41" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.56700500944524</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J42" t="n">
-        <v>93.92496692656603</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K42" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L42" t="n">
-        <v>240.7089373687433</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M42" t="n">
-        <v>284.0732401173728</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N42" t="n">
-        <v>293.9568688493046</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O42" t="n">
-        <v>265.2659172554371</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P42" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.5517604457787</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R42" t="n">
-        <v>51.59623089206058</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>51.2195006091853</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K43" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L43" t="n">
-        <v>129.1854217068895</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M43" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N43" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O43" t="n">
-        <v>214.8479176599168</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P43" t="n">
-        <v>416.458003261873</v>
+        <v>151.1226676941854</v>
       </c>
       <c r="Q43" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.80388184828404</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J44" t="n">
-        <v>162.8859483170603</v>
+        <v>162.8859483170602</v>
       </c>
       <c r="K44" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L44" t="n">
-        <v>319.2462667685869</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M44" t="n">
-        <v>360.4212501973914</v>
+        <v>360.4212501973912</v>
       </c>
       <c r="N44" t="n">
-        <v>367.0105598662803</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O44" t="n">
-        <v>344.3687958484202</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2477569326705</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q44" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R44" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.56700500944524</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J45" t="n">
-        <v>93.92496692656603</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K45" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L45" t="n">
-        <v>240.7089373687433</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M45" t="n">
-        <v>284.0732401173728</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N45" t="n">
-        <v>293.9568688493046</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O45" t="n">
-        <v>280.815256402055</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P45" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R45" t="n">
-        <v>51.59623089206058</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K46" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L46" t="n">
-        <v>509.3762233141268</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M46" t="n">
-        <v>362.6842436736444</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N46" t="n">
-        <v>134.7810420913196</v>
+        <v>207.8200299221773</v>
       </c>
       <c r="O46" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P46" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.48625946472849</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
